--- a/範本.xlsx
+++ b/範本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b60950dacb647973/文件/Code/Timer-App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_1BD0573A10D4C26ACBA5544108832444818C7AA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54DD076E-BCEC-49EB-B187-4C5CC70A637B}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_1BD0573A10D4C26ACBA5544108832444818C7AA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB702BF6-FF44-4D7F-9FD2-F0289CCCFFB3}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>隊伍名稱</t>
   </si>
   <si>
@@ -91,93 +82,107 @@
     <t>1</t>
   </si>
   <si>
-    <t>A1U-009</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>A1U-005</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>A1U-003</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>A1U-002</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>A1U-006</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>A1U-001</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>A1U-004</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>A1U-161</t>
+  </si>
+  <si>
+    <t>Allen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kevin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jenny</t>
+  </si>
+  <si>
+    <t>Mazetime2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gamma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epsilon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>A1U-131</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>A1U-005</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>A1U-003</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>A1U-002</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>A1U-006</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>A1U-001</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>A1U-004</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>A1U-161</t>
-  </si>
-  <si>
-    <t>Allen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kevin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dean</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jenny</t>
-  </si>
-  <si>
-    <t>Mazetime2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alpha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beta</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gamma</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delta</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Epsilon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1U-241</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -254,6 +259,10 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -571,7 +580,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,173 +595,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/範本.xlsx
+++ b/範本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b60950dacb647973/文件/Code/Timer-App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_1BD0573A10D4C26ACBA5544108832444818C7AA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB702BF6-FF44-4D7F-9FD2-F0289CCCFFB3}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_1BD0573A10D4C26ACBA5544108832444818C7AA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B7B3D40-EF6B-4685-8D52-994464C884C7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3132" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>隊伍名稱</t>
   </si>
@@ -79,110 +79,114 @@
     <t>Best score</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>A1U-005</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>A1U-003</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>A1U-002</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>A1U-006</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>A1U-001</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>A1U-004</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>A1U-161</t>
+  </si>
+  <si>
+    <t>Allen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kevin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jenny</t>
+  </si>
+  <si>
+    <t>Mazetime2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gamma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epsilon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1U-131</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1U-241</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>A1U-005</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>A1U-003</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>A1U-002</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>A1U-006</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>A1U-001</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>A1U-004</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>A1U-161</t>
-  </si>
-  <si>
-    <t>Allen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kevin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dean</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jenny</t>
-  </si>
-  <si>
-    <t>Mazetime2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alpha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beta</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gamma</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delta</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Epsilon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Team</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1U-131</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1U-241</t>
+    <t>00:01.476</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -263,6 +267,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -580,7 +585,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,13 +601,13 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -623,7 +628,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
@@ -667,101 +672,104 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/範本.xlsx
+++ b/範本.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b60950dacb647973/文件/Code/Timer-App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_1BD0573A10D4C26ACBA5544108832444818C7AA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B7B3D40-EF6B-4685-8D52-994464C884C7}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_1BD0573A10D4C26ACBA5544108832444818C7AA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4586430-4D45-4524-8D4A-070DA3A3BA2B}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3132" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>隊伍名稱</t>
   </si>
@@ -121,9 +121,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>A1U-161</t>
-  </si>
-  <si>
     <t>Allen</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -186,8 +183,34 @@
     <t>1</t>
   </si>
   <si>
-    <t>00:01.476</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>A1U-007</t>
+  </si>
+  <si>
+    <t>A1U-010</t>
+  </si>
+  <si>
+    <t>A1U-013</t>
+  </si>
+  <si>
+    <t>A1U-016</t>
+  </si>
+  <si>
+    <t>A1U-019</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>00:15.060</t>
   </si>
 </sst>
 </file>
@@ -582,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,13 +624,13 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -628,7 +651,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
@@ -672,27 +695,28 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>50</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -703,7 +727,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -714,7 +738,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -725,7 +749,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -736,8 +760,9 @@
         <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -747,7 +772,7 @@
         <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -758,7 +783,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -766,10 +791,42 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/範本.xlsx
+++ b/範本.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b60950dacb647973/文件/Code/Timer-App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_1BD0573A10D4C26ACBA5544108832444818C7AA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4586430-4D45-4524-8D4A-070DA3A3BA2B}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="11_1BD0573A10D4C26ACBA5544108832444818C7AA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E60B85FC-C532-413D-92BD-4887F9BAA2AF}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>隊伍名稱</t>
   </si>
@@ -79,87 +89,32 @@
     <t>Best score</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>A1U-005</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>A1U-003</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>A1U-002</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>A1U-006</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>A1U-001</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>A1U-004</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Allen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kevin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dean</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jenny</t>
-  </si>
-  <si>
     <t>Mazetime2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Alpha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beta</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gamma</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Delta</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Epsilon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Team</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -172,17 +127,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A1U-131</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1U-241</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>A1U-007</t>
   </si>
   <si>
@@ -192,32 +136,86 @@
     <t>A1U-013</t>
   </si>
   <si>
-    <t>A1U-016</t>
-  </si>
-  <si>
-    <t>A1U-019</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>00:15.060</t>
+    <t>A1U-008</t>
+  </si>
+  <si>
+    <t>A1U-009</t>
+  </si>
+  <si>
+    <t>A1U-011</t>
+  </si>
+  <si>
+    <t>A1U-012</t>
+  </si>
+  <si>
+    <t>A1U-014</t>
+  </si>
+  <si>
+    <t>Alfa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bravo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charlie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foxtrot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Juliett</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kilo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lima</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mike</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>November</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oscar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1U-015</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -238,12 +236,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF880000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -278,18 +270,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -605,32 +593,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="13" width="10.33203125" customWidth="1"/>
-    <col min="14" max="18" width="9.6640625" customWidth="1"/>
-    <col min="19" max="22" width="9.109375" customWidth="1"/>
-    <col min="23" max="23" width="9.44140625" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="13" width="10.28515625" customWidth="1"/>
+    <col min="14" max="18" width="9.7109375" customWidth="1"/>
+    <col min="19" max="22" width="9.140625" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>45</v>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -650,8 +638,8 @@
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>37</v>
+      <c r="J1" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
@@ -693,143 +681,183 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="6" t="s">
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:X16">
+    <sortCondition ref="X2:X16"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/範本.xlsx
+++ b/範本.xlsx
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
   <si>
     <t>隊伍名稱</t>
   </si>
@@ -50,6 +59,9 @@
     <t>Runtime5</t>
   </si>
   <si>
+    <t>Mazetime2</t>
+  </si>
+  <si>
     <t>Mazetime3</t>
   </si>
   <si>
@@ -89,133 +101,111 @@
     <t>Best score</t>
   </si>
   <si>
+    <t>A1U-001</t>
+  </si>
+  <si>
+    <t>Alfa</t>
+  </si>
+  <si>
+    <t>00:02.800</t>
+  </si>
+  <si>
+    <t>00:03.878</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>A1U-011</t>
+  </si>
+  <si>
+    <t>Kilo</t>
+  </si>
+  <si>
     <t>A1U-005</t>
   </si>
   <si>
+    <t>Echo</t>
+  </si>
+  <si>
+    <t>A1U-006</t>
+  </si>
+  <si>
+    <t>Foxtrot</t>
+  </si>
+  <si>
+    <t>A1U-012</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>A1U-013</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>A1U-002</t>
+  </si>
+  <si>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t>A1U-007</t>
+  </si>
+  <si>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>A1U-004</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>A1U-015</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>A1U-009</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>A1U-010</t>
+  </si>
+  <si>
+    <t>Juliett</t>
+  </si>
+  <si>
+    <t>A1U-008</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>A1U-014</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
     <t>A1U-003</t>
   </si>
   <si>
-    <t>A1U-002</t>
-  </si>
-  <si>
-    <t>A1U-006</t>
-  </si>
-  <si>
-    <t>A1U-001</t>
-  </si>
-  <si>
-    <t>A1U-004</t>
-  </si>
-  <si>
-    <t>Mazetime2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delta</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Team</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1U-007</t>
-  </si>
-  <si>
-    <t>A1U-010</t>
-  </si>
-  <si>
-    <t>A1U-013</t>
-  </si>
-  <si>
-    <t>A1U-008</t>
-  </si>
-  <si>
-    <t>A1U-009</t>
-  </si>
-  <si>
-    <t>A1U-011</t>
-  </si>
-  <si>
-    <t>A1U-012</t>
-  </si>
-  <si>
-    <t>A1U-014</t>
-  </si>
-  <si>
-    <t>Alfa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bravo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Charlie</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Foxtrot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Juliett</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kilo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lima</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mike</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>November</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oscar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1U-015</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Echo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Golf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>India</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -225,12 +215,6 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
@@ -268,17 +252,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -610,248 +594,254 @@
     <col min="23" max="23" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
+      <c r="C8" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" s="0">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>30</v>
+      <c r="C9" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>11</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>12</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>13</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
+    <row r="15">
+      <c r="A15" s="0">
+        <v>14</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>20</v>
+      <c r="C16" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -860,6 +850,7 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/範本.xlsx
+++ b/範本.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b60950dacb647973/文件/Code/Timer-App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_1BD0573A10D4C26ACBA5544108832444818C7AA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E60B85FC-C532-413D-92BD-4887F9BAA2AF}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="11_1BD0573A10D4C26ACBA5544108832444818C7AA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8632A831-62EE-4FBA-B1CC-4BC45D4E3BE6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1290" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Team</t>
   </si>
@@ -107,13 +107,7 @@
     <t>Alfa</t>
   </si>
   <si>
-    <t>00:02.800</t>
-  </si>
-  <si>
-    <t>00:03.878</t>
-  </si>
-  <si>
-    <t/>
+    <t>00:12.369</t>
   </si>
   <si>
     <t>A1U-011</t>
@@ -580,7 +574,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,12 +672,8 @@
       <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -694,10 +684,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -705,10 +695,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -716,10 +706,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -728,10 +718,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -739,10 +729,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -750,10 +740,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -761,10 +751,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -772,10 +762,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -783,10 +773,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
@@ -794,10 +784,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
@@ -805,10 +795,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -816,10 +806,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
@@ -827,10 +817,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
@@ -838,10 +828,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/範本.xlsx
+++ b/範本.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b60950dacb647973/文件/Code/Timer-App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="11_1BD0573A10D4C26ACBA5544108832444818C7AA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8632A831-62EE-4FBA-B1CC-4BC45D4E3BE6}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="11_1BD0573A10D4C26ACBA5544108832444818C7AA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A5A0E29-B370-4EAF-B8B6-A2BB56F69AB7}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="1290" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table1!$1:$1048576</definedName>
+  </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Team</t>
   </si>
@@ -107,7 +110,13 @@
     <t>Alfa</t>
   </si>
   <si>
-    <t>00:12.369</t>
+    <t>00:03.185</t>
+  </si>
+  <si>
+    <t>00:02.710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01.843   Time OUT</t>
   </si>
   <si>
     <t>A1U-011</t>
@@ -574,18 +583,34 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="18" width="9.7109375" customWidth="1"/>
-    <col min="19" max="22" width="9.140625" customWidth="1"/>
-    <col min="23" max="23" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="10.2736227852958" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="9.47631290980748" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="9.47631290980748" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="19.638421194894" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="9.44357408796038" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="9.44357408796038" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="10.8073207310268" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="10.8073207310268" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="10.8073207310268" customWidth="1"/>
+    <col min="13" max="13" bestFit="1" width="10.8073207310268" customWidth="1"/>
+    <col min="14" max="14" bestFit="1" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" bestFit="1" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" bestFit="1" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" bestFit="1" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" bestFit="1" width="9.140625" customWidth="1"/>
+    <col min="19" max="19" bestFit="1" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" bestFit="1" width="9.140625" customWidth="1"/>
+    <col min="21" max="21" bestFit="1" width="9.140625" customWidth="1"/>
+    <col min="22" max="22" bestFit="1" width="9.140625" customWidth="1"/>
+    <col min="23" max="23" bestFit="1" width="9.87019239153181" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -672,8 +697,12 @@
       <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -684,10 +713,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -695,10 +724,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -706,10 +735,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -718,10 +747,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -729,10 +758,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
@@ -740,10 +769,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -751,10 +780,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -762,10 +791,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
@@ -773,10 +802,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -784,10 +813,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -795,10 +824,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
@@ -806,10 +835,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -817,10 +846,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
@@ -828,13 +857,14 @@
         <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:X16">
     <sortCondition ref="X2:X16"/>
   </sortState>
